--- a/phpexcel_test/demo_666.xlsx
+++ b/phpexcel_test/demo_666.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
   <si>
     <t>團隊報表</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>Gura</t>
-  </si>
-  <si>
-    <t>JP</t>
   </si>
   <si>
     <t>EN</t>
@@ -67,7 +64,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="5">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -77,8 +74,44 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="30"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,18 +121,106 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDC00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7FDBFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border/>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -404,268 +525,500 @@
   <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col min="4" max="4" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9" customWidth="true" style="0"/>
+    <col min="6" max="6" width="3" customWidth="true" style="0"/>
+    <col min="7" max="7" width="3" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9" customWidth="true" style="0"/>
+    <col min="9" max="9" width="3" customWidth="true" style="0"/>
+    <col min="10" max="10" width="3" customWidth="true" style="0"/>
+    <col min="11" max="11" width="3" customWidth="true" style="0"/>
+    <col min="12" max="12" width="3" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9" customWidth="true" style="0"/>
+    <col min="14" max="14" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="16" max="16" width="3" customWidth="true" style="0"/>
+    <col min="17" max="17" width="3" customWidth="true" style="0"/>
+    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="20" customWidth="true" style="0"/>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:19" customHeight="1" ht="20">
+      <c r="A1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" customHeight="1" ht="20">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="11">
         <v>1</v>
       </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="11">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11">
         <v>3</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="11">
         <v>4</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="11">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="11">
         <v>6</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="11">
         <v>7</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="11">
         <v>8</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="11">
         <v>9</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="11">
         <v>10</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="11">
         <v>11</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="11">
         <v>12</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="11">
         <v>13</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="11">
         <v>14</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="11">
         <v>15</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" customHeight="1" ht="20">
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="S4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7">
+        <v>2</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customHeight="1" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="J5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" customHeight="1" ht="20">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:19">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="M6" t="s">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" customHeight="1" ht="20">
+      <c r="A7" s="1">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" customHeight="1" ht="20">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" customHeight="1" ht="20">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="S7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="F8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="H9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" customHeight="1" ht="20">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" customHeight="1" ht="20">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" customHeight="1" ht="20">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="S10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="M11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="E12" t="s">
-        <v>13</v>
-      </c>
-      <c r="M12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" customHeight="1" ht="20">
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13">
-        <v>2</v>
-      </c>
-      <c r="S13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+      <c r="C13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>2</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" customHeight="1" ht="20">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="O14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" customHeight="1" ht="20">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="O15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" customHeight="1" ht="20">
+      <c r="A16" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>2</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="7">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>0</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>4</v>
+      </c>
+      <c r="N16" s="7">
+        <v>0</v>
+      </c>
+      <c r="O16" s="7">
+        <v>2</v>
+      </c>
+      <c r="P16" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>0</v>
+      </c>
+      <c r="R16" s="7">
+        <v>0</v>
+      </c>
+      <c r="S16" s="7"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
@@ -682,6 +1035,11 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
     <mergeCell ref="A1:S2"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>

--- a/phpexcel_test/demo_666.xlsx
+++ b/phpexcel_test/demo_666.xlsx
@@ -38,7 +38,7 @@
     <t>Gura</t>
   </si>
   <si>
-    <t>EN</t>
+    <t>支援EN</t>
   </si>
   <si>
     <t>Ina</t>
@@ -64,22 +64,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <b val="0"/>
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
-      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -134,26 +125,8 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="3">
     <border/>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -186,41 +159,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -551,105 +518,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" customHeight="1" ht="20">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="9"/>
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
     </row>
     <row r="2" spans="1:19" customHeight="1" ht="20">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="10" t="s">
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="9">
         <v>1</v>
       </c>
-      <c r="E3" s="11">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11">
+      <c r="E3" s="9">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9">
         <v>3</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="9">
         <v>4</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="9">
         <v>5</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="9">
         <v>6</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="9">
         <v>7</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="9">
         <v>8</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="9">
         <v>9</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="9">
         <v>10</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="9">
         <v>11</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="9">
         <v>12</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="9">
         <v>13</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="9">
         <v>14</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="9">
         <v>15</v>
       </c>
-      <c r="S3" s="10" t="s">
+      <c r="S3" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -657,368 +624,368 @@
       <c r="A4" s="1">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7">
-        <v>2</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7">
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3">
+        <v>2</v>
+      </c>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:19" customHeight="1" ht="20">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
     </row>
     <row r="6" spans="1:19" customHeight="1" ht="20">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7" t="s">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
     </row>
     <row r="7" spans="1:19" customHeight="1" ht="20">
       <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7">
-        <v>2</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3">
+        <v>2</v>
+      </c>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:19" customHeight="1" ht="20">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7" t="s">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
     </row>
     <row r="9" spans="1:19" customHeight="1" ht="20">
       <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7" t="s">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
     </row>
     <row r="10" spans="1:19" customHeight="1" ht="20">
       <c r="A10" s="1">
         <v>3</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
-        <v>2</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7">
-        <v>2</v>
-      </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7">
+      <c r="D10" s="3"/>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3">
+        <v>2</v>
+      </c>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:19" customHeight="1" ht="20">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7" t="s">
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
     </row>
     <row r="12" spans="1:19" customHeight="1" ht="20">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7" t="s">
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7" t="s">
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
     </row>
     <row r="13" spans="1:19" customHeight="1" ht="20">
       <c r="A13" s="1">
         <v>4</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7">
-        <v>2</v>
-      </c>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7">
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3">
+        <v>2</v>
+      </c>
+      <c r="P13" s="3"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:19" customHeight="1" ht="20">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7" t="s">
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
     <row r="15" spans="1:19" customHeight="1" ht="20">
       <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7" t="s">
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
+      <c r="O15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="P15" s="3"/>
+      <c r="Q15" s="3"/>
+      <c r="R15" s="3"/>
+      <c r="S15" s="3"/>
     </row>
     <row r="16" spans="1:19" customHeight="1" ht="20">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="7">
-        <v>2</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="7">
-        <v>0</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="7">
-        <v>0</v>
-      </c>
-      <c r="K16" s="7">
-        <v>0</v>
-      </c>
-      <c r="L16" s="7">
-        <v>0</v>
-      </c>
-      <c r="M16" s="7">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="4">
+        <v>2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0</v>
+      </c>
+      <c r="K16" s="4">
+        <v>0</v>
+      </c>
+      <c r="L16" s="4">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>4</v>
       </c>
-      <c r="N16" s="7">
-        <v>0</v>
-      </c>
-      <c r="O16" s="7">
-        <v>2</v>
-      </c>
-      <c r="P16" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="7">
-        <v>0</v>
-      </c>
-      <c r="R16" s="7">
-        <v>0</v>
-      </c>
-      <c r="S16" s="7"/>
+      <c r="N16" s="4">
+        <v>0</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+      <c r="S16" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/phpexcel_test/demo_666.xlsx
+++ b/phpexcel_test/demo_666.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>團隊報表</t>
   </si>
@@ -32,31 +32,40 @@
     <t>合計</t>
   </si>
   <si>
-    <t>holoEn</t>
-  </si>
-  <si>
-    <t>Gura</t>
-  </si>
-  <si>
-    <t>支援EN</t>
-  </si>
-  <si>
-    <t>Ina</t>
-  </si>
-  <si>
-    <t>Irys</t>
-  </si>
-  <si>
-    <t>Kobo</t>
-  </si>
-  <si>
-    <t>Ame</t>
-  </si>
-  <si>
-    <t>Zeta</t>
-  </si>
-  <si>
-    <t>Gigi</t>
+    <t>佳甫小隊</t>
+  </si>
+  <si>
+    <t>林佳甫</t>
+  </si>
+  <si>
+    <t>支援烏日料廠</t>
+  </si>
+  <si>
+    <t>支援合邁1隊</t>
+  </si>
+  <si>
+    <t>支援炤榮小隊</t>
+  </si>
+  <si>
+    <t>吳育榤</t>
+  </si>
+  <si>
+    <t>李家煇</t>
+  </si>
+  <si>
+    <t>李泊詮</t>
+  </si>
+  <si>
+    <t>江永傳</t>
+  </si>
+  <si>
+    <t>吳晉逢</t>
+  </si>
+  <si>
+    <t>許峻豪</t>
+  </si>
+  <si>
+    <t>簡宇皓</t>
   </si>
 </sst>
 </file>
@@ -79,7 +88,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="12"/>
+      <sz val="30"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -97,7 +106,7 @@
       <i val="0"/>
       <strike val="0"/>
       <u val="none"/>
-      <sz val="30"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -114,13 +123,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFDC00"/>
+        <fgColor rgb="FF7FDBFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7FDBFF"/>
+        <fgColor rgb="FFFFDC00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -159,35 +168,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -489,507 +495,518 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:AH28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R3" sqref="R3"/>
+      <selection activeCell="AH4" sqref="AH4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col min="2" max="2" width="20" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="34" max="34" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="9" customWidth="true" style="0"/>
+    <col min="5" max="5" width="3" customWidth="true" style="0"/>
     <col min="6" max="6" width="3" customWidth="true" style="0"/>
     <col min="7" max="7" width="3" customWidth="true" style="0"/>
-    <col min="8" max="8" width="9" customWidth="true" style="0"/>
+    <col min="8" max="8" width="3" customWidth="true" style="0"/>
     <col min="9" max="9" width="3" customWidth="true" style="0"/>
     <col min="10" max="10" width="3" customWidth="true" style="0"/>
     <col min="11" max="11" width="3" customWidth="true" style="0"/>
     <col min="12" max="12" width="3" customWidth="true" style="0"/>
-    <col min="13" max="13" width="9" customWidth="true" style="0"/>
+    <col min="13" max="13" width="3" customWidth="true" style="0"/>
     <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="9" customWidth="true" style="0"/>
+    <col min="15" max="15" width="3" customWidth="true" style="0"/>
     <col min="16" max="16" width="3" customWidth="true" style="0"/>
     <col min="17" max="17" width="3" customWidth="true" style="0"/>
     <col min="18" max="18" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="20" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9" customWidth="true" style="0"/>
+    <col min="21" max="21" width="3" customWidth="true" style="0"/>
+    <col min="22" max="22" width="3" customWidth="true" style="0"/>
+    <col min="23" max="23" width="9" customWidth="true" style="0"/>
+    <col min="24" max="24" width="9" customWidth="true" style="0"/>
+    <col min="25" max="25" width="3" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9" customWidth="true" style="0"/>
+    <col min="27" max="27" width="3" customWidth="true" style="0"/>
+    <col min="28" max="28" width="9" customWidth="true" style="0"/>
+    <col min="29" max="29" width="9" customWidth="true" style="0"/>
+    <col min="30" max="30" width="9" customWidth="true" style="0"/>
+    <col min="31" max="31" width="3" customWidth="true" style="0"/>
+    <col min="32" max="32" width="3" customWidth="true" style="0"/>
+    <col min="33" max="33" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" customHeight="1" ht="20">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-    </row>
-    <row r="2" spans="1:19" customHeight="1" ht="20">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" spans="1:19">
-      <c r="A3" s="8" t="s">
+    <row r="1" spans="1:34" customHeight="1" ht="20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+    </row>
+    <row r="2" spans="1:34" customHeight="1" ht="20">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="4">
         <v>2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="4">
         <v>3</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="4">
         <v>4</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="4">
         <v>5</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="4">
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="4">
         <v>7</v>
       </c>
-      <c r="K3" s="9">
-        <v>8</v>
-      </c>
-      <c r="L3" s="9">
+      <c r="K3" s="4">
+        <v>8</v>
+      </c>
+      <c r="L3" s="4">
         <v>9</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="4">
         <v>10</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="4">
         <v>11</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="4">
         <v>12</v>
       </c>
-      <c r="P3" s="9">
+      <c r="P3" s="4">
         <v>13</v>
       </c>
-      <c r="Q3" s="9">
+      <c r="Q3" s="4">
         <v>14</v>
       </c>
-      <c r="R3" s="9">
+      <c r="R3" s="4">
         <v>15</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="4">
+        <v>16</v>
+      </c>
+      <c r="T3" s="4">
+        <v>17</v>
+      </c>
+      <c r="U3" s="4">
+        <v>18</v>
+      </c>
+      <c r="V3" s="4">
+        <v>19</v>
+      </c>
+      <c r="W3" s="4">
+        <v>20</v>
+      </c>
+      <c r="X3" s="4">
+        <v>21</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>22</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>24</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>26</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>28</v>
+      </c>
+      <c r="AF3" s="4">
+        <v>29</v>
+      </c>
+      <c r="AG3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AH3" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:19" customHeight="1" ht="20">
-      <c r="A4" s="1">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:34" customHeight="1" ht="20">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3">
-        <v>2</v>
-      </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" customHeight="1" ht="20">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3" t="s">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>8</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>8</v>
+      </c>
+      <c r="X4" s="7">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>8</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="8"/>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="U5" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
-      <c r="S5" s="3"/>
-    </row>
-    <row r="6" spans="1:19" customHeight="1" ht="20">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-    </row>
-    <row r="7" spans="1:19" customHeight="1" ht="20">
-      <c r="A7" s="1">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="X5" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="5">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="5">
+        <v>4</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="5">
+        <v>6</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="5">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="5">
+        <v>8</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="5">
         <v>9</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3">
-        <v>2</v>
-      </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" customHeight="1" ht="20">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-    </row>
-    <row r="9" spans="1:19" customHeight="1" ht="20">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-    </row>
-    <row r="10" spans="1:19" customHeight="1" ht="20">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3">
-        <v>2</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3">
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" customHeight="1" ht="20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" customHeight="1" ht="20">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-    </row>
-    <row r="13" spans="1:19" customHeight="1" ht="20">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3">
-        <v>2</v>
-      </c>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" customHeight="1" ht="20">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="3"/>
-      <c r="S14" s="3"/>
-    </row>
-    <row r="15" spans="1:19" customHeight="1" ht="20">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="3"/>
-      <c r="S15" s="3"/>
-    </row>
-    <row r="16" spans="1:19" customHeight="1" ht="20">
-      <c r="A16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="4">
-        <v>0</v>
-      </c>
-      <c r="E16" s="4">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>2</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0</v>
-      </c>
-      <c r="J16" s="4">
-        <v>0</v>
-      </c>
-      <c r="K16" s="4">
-        <v>0</v>
-      </c>
-      <c r="L16" s="4">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
-        <v>4</v>
-      </c>
-      <c r="N16" s="4">
-        <v>0</v>
-      </c>
-      <c r="O16" s="4">
-        <v>2</v>
-      </c>
-      <c r="P16" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="4">
-        <v>0</v>
-      </c>
-      <c r="R16" s="4">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
+    <mergeCell ref="A1:AH2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -1002,12 +1019,19 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="S4:S6"/>
-    <mergeCell ref="S7:S9"/>
-    <mergeCell ref="S10:S12"/>
-    <mergeCell ref="S13:S15"/>
-    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="C22:C24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="A28:C28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phpexcel_test/demo_666.xlsx
+++ b/phpexcel_test/demo_666.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>團隊報表</t>
   </si>
@@ -29,43 +29,61 @@
     <t>員工</t>
   </si>
   <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
     <t>合計</t>
   </si>
   <si>
-    <t>佳甫小隊</t>
-  </si>
-  <si>
-    <t>林佳甫</t>
-  </si>
-  <si>
-    <t>支援烏日料廠</t>
-  </si>
-  <si>
-    <t>支援合邁1隊</t>
-  </si>
-  <si>
-    <t>支援炤榮小隊</t>
-  </si>
-  <si>
-    <t>吳育榤</t>
-  </si>
-  <si>
-    <t>李家煇</t>
-  </si>
-  <si>
-    <t>李泊詮</t>
-  </si>
-  <si>
-    <t>江永傳</t>
-  </si>
-  <si>
-    <t>吳晉逢</t>
-  </si>
-  <si>
-    <t>許峻豪</t>
-  </si>
-  <si>
-    <t>簡宇皓</t>
+    <t>holoEn</t>
+  </si>
+  <si>
+    <t>Gura</t>
+  </si>
+  <si>
+    <t>支援EN</t>
+  </si>
+  <si>
+    <t>Ina</t>
+  </si>
+  <si>
+    <t>Irys</t>
+  </si>
+  <si>
+    <t>Kobo</t>
+  </si>
+  <si>
+    <t>Ame</t>
+  </si>
+  <si>
+    <t>Zeta</t>
+  </si>
+  <si>
+    <t>Gigi</t>
   </si>
 </sst>
 </file>
@@ -168,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -188,6 +206,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -495,50 +516,35 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AH28"/>
+  <dimension ref="A1:S16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AH4" sqref="AH4"/>
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="true" style="0"/>
     <col min="3" max="3" width="20" customWidth="true" style="0"/>
-    <col min="34" max="34" width="3" customWidth="true" style="0"/>
+    <col min="19" max="19" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9" customWidth="true" style="0"/>
     <col min="6" max="6" width="3" customWidth="true" style="0"/>
     <col min="7" max="7" width="3" customWidth="true" style="0"/>
-    <col min="8" max="8" width="3" customWidth="true" style="0"/>
+    <col min="8" max="8" width="9" customWidth="true" style="0"/>
     <col min="9" max="9" width="3" customWidth="true" style="0"/>
     <col min="10" max="10" width="3" customWidth="true" style="0"/>
     <col min="11" max="11" width="3" customWidth="true" style="0"/>
     <col min="12" max="12" width="3" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
+    <col min="13" max="13" width="9" customWidth="true" style="0"/>
     <col min="14" max="14" width="3" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
+    <col min="15" max="15" width="9" customWidth="true" style="0"/>
     <col min="16" max="16" width="3" customWidth="true" style="0"/>
     <col min="17" max="17" width="3" customWidth="true" style="0"/>
     <col min="18" max="18" width="3" customWidth="true" style="0"/>
-    <col min="19" max="19" width="3" customWidth="true" style="0"/>
-    <col min="20" max="20" width="9" customWidth="true" style="0"/>
-    <col min="21" max="21" width="3" customWidth="true" style="0"/>
-    <col min="22" max="22" width="3" customWidth="true" style="0"/>
-    <col min="23" max="23" width="9" customWidth="true" style="0"/>
-    <col min="24" max="24" width="9" customWidth="true" style="0"/>
-    <col min="25" max="25" width="3" customWidth="true" style="0"/>
-    <col min="26" max="26" width="9" customWidth="true" style="0"/>
-    <col min="27" max="27" width="3" customWidth="true" style="0"/>
-    <col min="28" max="28" width="9" customWidth="true" style="0"/>
-    <col min="29" max="29" width="9" customWidth="true" style="0"/>
-    <col min="30" max="30" width="9" customWidth="true" style="0"/>
-    <col min="31" max="31" width="3" customWidth="true" style="0"/>
-    <col min="32" max="32" width="3" customWidth="true" style="0"/>
-    <col min="33" max="33" width="3" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" customHeight="1" ht="20">
+    <row r="1" spans="1:19" customHeight="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -560,23 +566,8 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-    </row>
-    <row r="2" spans="1:34" customHeight="1" ht="20">
+    </row>
+    <row r="2" spans="1:19" customHeight="1" ht="20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -596,23 +587,8 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AD2" s="2"/>
-      <c r="AE2" s="2"/>
-      <c r="AF2" s="2"/>
-      <c r="AG2" s="2"/>
-      <c r="AH2" s="2"/>
-    </row>
-    <row r="3" spans="1:34">
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -622,32 +598,32 @@
       <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
-        <v>3</v>
-      </c>
-      <c r="G3" s="4">
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="E3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="4">
+      <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4">
+      <c r="G3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4">
+      <c r="H3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="4">
+      <c r="I3" s="4" t="s">
         <v>9</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="M3" s="4">
         <v>10</v>
@@ -667,346 +643,381 @@
       <c r="R3" s="4">
         <v>15</v>
       </c>
-      <c r="S3" s="4">
-        <v>16</v>
-      </c>
-      <c r="T3" s="4">
-        <v>17</v>
-      </c>
-      <c r="U3" s="4">
-        <v>18</v>
-      </c>
-      <c r="V3" s="4">
-        <v>19</v>
-      </c>
-      <c r="W3" s="4">
-        <v>20</v>
-      </c>
-      <c r="X3" s="4">
-        <v>21</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>22</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>23</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>24</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>25</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>26</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>27</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>28</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>29</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>30</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" customHeight="1" ht="20">
+      <c r="S3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" customHeight="1" ht="20">
       <c r="A4" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="7">
-        <v>0</v>
-      </c>
-      <c r="E4" s="7">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7">
-        <v>0</v>
-      </c>
-      <c r="K4" s="7">
-        <v>0</v>
-      </c>
-      <c r="L4" s="7">
-        <v>0</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7">
-        <v>0</v>
-      </c>
-      <c r="O4" s="7">
-        <v>0</v>
-      </c>
-      <c r="P4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>0</v>
-      </c>
-      <c r="R4" s="7">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
       <c r="S4" s="7">
-        <v>0</v>
-      </c>
-      <c r="T4" s="7">
-        <v>8</v>
-      </c>
-      <c r="U4" s="7">
-        <v>0</v>
-      </c>
-      <c r="V4" s="7">
-        <v>0</v>
-      </c>
-      <c r="W4" s="7">
-        <v>8</v>
-      </c>
-      <c r="X4" s="7">
-        <v>8</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>8</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>8</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>8</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>8</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AG4" s="7">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="8"/>
-    </row>
-    <row r="5" spans="1:34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" customHeight="1" ht="20">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="U5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>9</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+    </row>
+    <row r="6" spans="1:19" customHeight="1" ht="20">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:34">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+    </row>
+    <row r="7" spans="1:19" customHeight="1" ht="20">
       <c r="A7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:34">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" customHeight="1" ht="20">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:34">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+    </row>
+    <row r="9" spans="1:19" customHeight="1" ht="20">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="10" spans="1:34">
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+    </row>
+    <row r="10" spans="1:19" customHeight="1" ht="20">
       <c r="A10" s="5">
+        <v>3</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7">
+        <v>2</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:34">
+    </row>
+    <row r="11" spans="1:19" customHeight="1" ht="20">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-    </row>
-    <row r="12" spans="1:34">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+    </row>
+    <row r="12" spans="1:19" customHeight="1" ht="20">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
-    </row>
-    <row r="13" spans="1:34">
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+    </row>
+    <row r="13" spans="1:19" customHeight="1" ht="20">
       <c r="A13" s="5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:34">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>2</v>
+      </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" customHeight="1" ht="20">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
-    </row>
-    <row r="15" spans="1:34">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+    </row>
+    <row r="15" spans="1:19" customHeight="1" ht="20">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
-    </row>
-    <row r="16" spans="1:34">
-      <c r="A16" s="5">
-        <v>6</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+    </row>
+    <row r="16" spans="1:19" customHeight="1" ht="20">
+      <c r="A16" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:34">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="1:34">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="1:34">
-      <c r="A19" s="5">
-        <v>7</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:34">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="1:34">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="1:34">
-      <c r="A22" s="5">
-        <v>8</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:34">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="1:34">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="1:34">
-      <c r="A25" s="5">
-        <v>9</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:34">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="1:34">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="1:34">
-      <c r="A28" s="6" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8">
+        <v>0</v>
+      </c>
+      <c r="E16" s="8">
+        <v>2</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0</v>
+      </c>
+      <c r="H16" s="8">
+        <v>2</v>
+      </c>
+      <c r="I16" s="8">
+        <v>0</v>
+      </c>
+      <c r="J16" s="8">
+        <v>0</v>
+      </c>
+      <c r="K16" s="8">
+        <v>0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>0</v>
+      </c>
+      <c r="M16" s="8">
         <v>4</v>
       </c>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
+      <c r="N16" s="8">
+        <v>0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>2</v>
+      </c>
+      <c r="P16" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>0</v>
+      </c>
+      <c r="S16" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
-    <mergeCell ref="A1:AH2"/>
+    <mergeCell ref="A1:S2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
@@ -1019,19 +1030,11 @@
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="C13:C15"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="S4:S6"/>
+    <mergeCell ref="S7:S9"/>
+    <mergeCell ref="S10:S12"/>
+    <mergeCell ref="S13:S15"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phpexcel_test/demo_666.xlsx
+++ b/phpexcel_test/demo_666.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>團隊報表</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>團隊</t>
-  </si>
-  <si>
-    <t>員工</t>
   </si>
   <si>
     <t>01</t>
@@ -525,7 +522,6 @@
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="20" customWidth="true" style="0"/>
     <col min="19" max="19" width="3" customWidth="true" style="0"/>
     <col min="4" max="4" width="3" customWidth="true" style="0"/>
     <col min="5" max="5" width="9" customWidth="true" style="0"/>
@@ -595,35 +591,32 @@
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>11</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="M3" s="4">
         <v>10</v>
@@ -644,7 +637,7 @@
         <v>15</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" customHeight="1" ht="20">
@@ -652,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7"/>
@@ -692,7 +685,7 @@
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -715,7 +708,7 @@
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -729,10 +722,10 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -764,7 +757,7 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7"/>
@@ -787,7 +780,7 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
@@ -806,10 +799,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7">
@@ -840,7 +833,7 @@
       <c r="C11" s="5"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -850,7 +843,7 @@
       <c r="K11" s="7"/>
       <c r="L11" s="7"/>
       <c r="M11" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -865,7 +858,7 @@
       <c r="C12" s="5"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -875,7 +868,7 @@
       <c r="K12" s="7"/>
       <c r="L12" s="7"/>
       <c r="M12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -889,10 +882,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -931,7 +924,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
@@ -954,7 +947,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
@@ -963,7 +956,7 @@
     </row>
     <row r="16" spans="1:19" customHeight="1" ht="20">
       <c r="A16" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
